--- a/MainTop/08.04.2025/p4.xlsx
+++ b/MainTop/08.04.2025/p4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Термонаклейка Аниме девочка с мыльными пузырями</t>
+          <t>Термонаклейка Одри Хепбёрн холст Vogue</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -564,7 +564,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>3</v>
@@ -573,13 +573,13 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -588,13 +588,13 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -618,7 +618,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Термонаклейка Цветы Магнолия белые Botanical</t>
+          <t>Термонаклейка Цветы Розовые Spring Blossoms</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -631,40 +631,40 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Термонаклейка Белая Лошадь Цветы</t>
+          <t>Термонаклейка Девочка и Лиса</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -707,34 +707,34 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" t="n">
         <v>5</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
         <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -758,53 +758,53 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Термонаклейка Цветы Желтый Мак</t>
+          <t>Термонаклейка Перья Яркие Wild Spirit</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
         <v>2</v>
       </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="O5" t="n">
         <v>2</v>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
       <c r="P5" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -828,21 +828,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Термонаклейка Цветы Синии Амариллис</t>
+          <t>Термонаклейка Морская Черепаха Море силует</t>
         </is>
       </c>
       <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
@@ -862,19 +862,19 @@
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Термонаклейка Пара леопардов в ночной листве</t>
+          <t>Термонаклейка Аниме девочка с мыльными пузырями</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -911,19 +911,19 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -935,16 +935,16 @@
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -957,7 +957,7 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Термонаклейка Сердце разынй окрас</t>
+          <t>Термонаклейка Цветы Магнолия белые Botanical</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -978,43 +978,43 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1027,7 +1027,7 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1038,53 +1038,53 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Термонаклейка Лев Краски Дизайн</t>
+          <t>Термонаклейка Белая Лошадь Цветы</t>
         </is>
       </c>
       <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
         <v>2</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="O9" t="n">
         <v>2</v>
       </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1097,7 +1097,7 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1108,53 +1108,53 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Термонаклейка Секс в большом городе подруги</t>
+          <t>Термонаклейка Цветы Желтый Мак</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1167,7 +1167,7 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1178,53 +1178,53 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Термонаклейка Сердце Большая волна в Канагаве</t>
+          <t>Термонаклейка Цветы Синии Амариллис</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
         <v>6</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1237,7 +1237,7 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Термонаклейка Чайка силует море внутри</t>
+          <t>Термонаклейка Пара леопардов в ночной листве</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1258,43 +1258,43 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P12" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1307,7 +1307,7 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1318,38 +1318,38 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Термонаклейка Маленький принц на синем ките</t>
+          <t>Термонаклейка Сердце разынй окрас</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1358,13 +1358,13 @@
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1377,7 +1377,7 @@
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1388,23 +1388,23 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Термонаклейка Цветы Колибри 2шт</t>
+          <t>Термонаклейка Лев Краски Дизайн</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1422,19 +1422,19 @@
         <v>3</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1447,7 +1447,7 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1458,14 +1458,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Термонаклейка Цветы Магнолия 3шт розовые</t>
+          <t>Термонаклейка Секс в большом городе подруги</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1474,10 +1474,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1495,16 +1495,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Термонаклейка Девушка макияж Хэллоуин</t>
+          <t>Термонаклейка Сердце Большая волна в Канагаве</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1553,13 +1553,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1568,13 +1568,13 @@
         <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Термонаклейка Матрешка Moscow</t>
+          <t>Термонаклейка Чайка силует море внутри</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1638,13 +1638,13 @@
         <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1668,35 +1668,35 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Термонаклейка Сердце Love is Wild</t>
+          <t>Термонаклейка Маленький принц на синем ките</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
         <v>2</v>
@@ -1730,496 +1730,6 @@
         <v>6</v>
       </c>
       <c r="V18" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Термонаклейка Пантера силует внутри цветы</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="n">
-        <v>6</v>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Термонаклейка Мэрилин Монро Медуза Горгона</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>3</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>3</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Термонаклейка Бабочка синяя Blue butterfly</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>3</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>5</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Термонаклейка Белый волк с цветами и узорами</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>3</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Термонаклейка Девушка с галактической магией</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>3</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Термонаклейка Кот Сфинкс Звезды Молния</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>3</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Термонаклейка Сердце Бабочки летят</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>3</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
-      <c r="V25" t="inlineStr">
         <is>
           <t>1_а4</t>
         </is>

--- a/MainTop/08.04.2025/p4.xlsx
+++ b/MainTop/08.04.2025/p4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1264,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1395,10 +1395,10 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
@@ -1407,19 +1407,19 @@
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1428,13 +1428,13 @@
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1447,7 +1447,7 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1465,22 +1465,22 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1538,13 +1538,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1553,13 +1553,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1611,34 +1611,34 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1660,76 +1660,6 @@
         <v>7</v>
       </c>
       <c r="V17" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Термонаклейка Маленький принц на синем ките</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2</v>
-      </c>
-      <c r="P18" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="n">
-        <v>6</v>
-      </c>
-      <c r="V18" t="inlineStr">
         <is>
           <t>1_а4</t>
         </is>
